--- a/biology/Zoologie/Dipsas_oreas/Dipsas_oreas.xlsx
+++ b/biology/Zoologie/Dipsas_oreas/Dipsas_oreas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsas oreas  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsas oreas  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Pérou et en Équateur[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Pérou et en Équateur. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
